--- a/500all/speech_level/speeches_CHRG-114hhrg20501.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20501.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,36 +52,24 @@
     <t>400185</t>
   </si>
   <si>
-    <t>Michael M. Honda</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Honda. To follow up on that, you said that you do not choose sites for them, but in our country we have depressed areas like our chairman talks about, certain communities that are being hit because of the energy shift. And it seems to me that some attention should be paid to those communities where they might want to be able to look at those communities and say what are some of the possibilities of investments there and what kind of activities can come up there, because there are a lot of skilled people out there. It is just the economic picture has changed and I think that some direction or some discussion around some of the impacted areas of our country might be important.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Pritzker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Pritzker. I appreciate that.</t>
   </si>
   <si>
     <t>400089</t>
   </si>
   <si>
-    <t>John Abney Culberson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Culberson. Thank you.    Mr. Jolly.</t>
   </si>
   <si>
     <t>412603</t>
   </si>
   <si>
-    <t>David W. Jolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jolly. Thank you, Mr. Chairman.    Madam Secretary, just one more quick topic and again focused on NOAA, so if it is something we need to just put on the record and get back to. But I appreciate the request for additional investment in ocean acidification and coastal resiliency.    My question is about the delay of the Argos Satellite launch, the data-collection program that I believe as late as last year the decision was made between NOAA and some of the industry partners involved in the Argos program to launch in 2019, and I understand in the request that is possibly delayed now as late as 2021. And if we need to take it for the record, we can, but this is a question given our mutual interest in both data as well as the quality of our oceans, the ability to monitor the data related to ocean quality, ocean acidification, resiliency, and so forth. How Argos contributes to the current mission and any fear of a lapse in data collection or compromised data as a result of a two-year delay from a schedule that as recently as last year was just agreed to.    So if you do have any information on that, I would be happy to--certainly appreciate any contribution. If not, we can do it for the record.</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>412443</t>
   </si>
   <si>
-    <t>Steven M. Palazzo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palazzo. Sure. You know, I am here, I have got a chance to ask you another question, I will take it.    You mentioned in your testimony building a weather-ready nation and you mentioned of course NOAA National Weather Service. And we have in my district a specific interest with the National Data Buoy Center, which is extremely important to help calculate natural disasters and patterns in our oceans. Can you expand?    I mean, right now I am getting all kind of weather alerts back home, tornado watches and stuff like that. So it is on my mind. Maybe a little bit more about what it means to build a weather-ready nation.</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>400068</t>
   </si>
   <si>
-    <t>John R. Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. That's all right. I will catch up after you. Go ahead.</t>
   </si>
   <si>
@@ -244,18 +226,12 @@
     <t xml:space="preserve">    Mr. Culberson. Thank you, Mr. Honda. I feel the same way, as I know Mr. Fattah does. And all of us on the subcommittee are extraordinarily supportive of the work that you do. Dr. Elachi, Dr. Lunine, we are glad to have you with us today. And we will start with you, Dr. Elachi. And of course, without objection, your written statement will be entered into the record in its entirety and we encourage you to summarize, particularly in light of the fact that we do not want you to lose your voice entirely. But thank you so much for being here, and Dr. Elachi, you are recognized.</t>
   </si>
   <si>
-    <t>Elachi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Elachi. Thank you, and Chairman Culberson, Ranking Member Honda, distinguished members of the subcommittee. Let me start by apologizing about my voice. My doctor's prognosis is that I talk too much. But that is not stopping me, to come and talk to you here. And it is a great honor for me to have this opportunity to talk to you about exploration of life in the Ocean Worlds.    Just thinking about it, that for thousands of years our ancestors looked up into the sky and wondered if there was life. And for the first time in human history, and I will repeat what I said, the first time in human history we know how to do that. We have the technology and the capability to explore for life in our solar system and beyond. And it really depends on us. It depends on you as our leaders and policy makers, and it depends on us as the technical people, we at NASA, in academia, and in industry.    In addition we know where to look, and I am going to touch on two locations and my friend and colleague Professional Lunine will touch on two other locations. First let me talk briefly about Mars. With Spirit, Opportunity, Curiosity and the spacecraft we have in orbit, we are convinced now on scientific grounds that actually there used to be oceans on Mars in the past. And then with the changes of the climate on Mars, the water is frozen now. And the key question is always the ocean in the past. And based on Curiosity's measurement, Mars has all of the ingredients that exist on Earth, could life exist? And that is what we are doing through our Mars program, looking for past life, on Mars.    And as you know we have Mars 2020, which is preparing with biological instruments to look and collect samples so they can be brought back to Earth in the following decade. And NASA in the budget has something that was called Mars precursors, which basically is to prepare for that era. To have the orbiting satellites that are needed and to look at how do we bring those caches back, how do we explore and prospect for ice in preparation for a human mission?    As was mentioned about ``The Martian,'' one thing I like about ``The Martian,'' that that could happen during my children's lifetime. And NASA is putting in place all of the elements which could enable us to explore, that planet.    Now the reason we are in such a good shape in Mars is because NASA developed a well thought-out integrated program, and that is the kind of program we need to do the exploration of the Ocean World, in the outer solar system. Now based on Voyager and Galileo data, we do know that Europa has an ice shell, H&lt;INF&gt;2&lt;/INF&gt;O ice, it is water ice, like I am drinking here. And it has an ocean below the surface which has enough water, which is two to three times the water which is on Earth here. Now you would say how could that be? It is so cold out there. How could there be liquid water in that location? Well it turned out as these satellites, like Europa, go around Jupiter, which is a very heavy planet, it is about 300 times the mass of Earth, it creates tides exactly like what happens with our Moon. So over millions of years that tide has been pumping that ice back and forth, and that is what leads to generation of heat. So there it has the right ingredient, where you have liquid water today. It had organic material, and there is energy coming from the tide. So it has all the ingredients that life could exist today. Not in the past.    Now in order to successfully look at that life I think we need basically to land on the surface, melt our way, and get down to that ocean. Now we cannot do that today because there are a number of things that we need to learn before we can do that ultimate mission. So in order to be successful I think there are three elements that need to be done in the near future. One is to have an orbiter which will map the surface of Europa at very high resolution and sound through that ice so we can determine how thick it is. And that is what NASA is planning, a Europa mission that through your direction, NASA and the decadal, NASA today has instruments selected, we are in phase A, and I think we are progressing, with that mission.    The second element is to put a modest lander on the surface so we can determine the characteristics of that ice. So between the combination of the sounding which tells us how thick and the lander which tells us the characteristics of that ice that will prepare us in the future to put a Europa ocean explorer to melt our way and go below the surface.    NASA has started that activity based on your direction. Just a couple of days ago they requested from the science community for people who are interested to be on a science definition team to work with us on defining scientifically what should be the payload. And that lander will capitalize very heavily on what we have done on Spirit, Opportunity, and Curiosity in the technological technique of how do we land with a sky crane. And it looked very much like some of that technology that we have developed before. So we are very confident technologically that with appropriate funding that mission could be done at an acceptable risk.    And the third element is to have a technology program which will support from now, start to think how do we melt our way, how do we create a submarine? So by having these three elements, I am confident that we can explore the oceans of Europa in the foreseeable future.    Now the next key question is how do you launch it? How do you get there? And here there are a number of possibilities we are looking at. Clearly today we have heavy launch vehicles. Those heavy launch vehicles would take at least seven to eight years to get us to Jupiter. And that is what happened on Cassini. What we have to do is to launch, do a series of fly-bys by Earth to get enough energy to get there. Fortunately NASA is developing the SLS. With the capability of the SLS we can get directly to Jupiter in about two and a half years. That is a huge difference, and to some extent cost saving from the point of view of operation. And then you can have combination. Depending on how heavy the lander is if we cannot go direct we can go and do one fly-by by Earth and then head to Jupiter and that takes about four years.    So as we speak today we are looking at all these different options. Now fortunately what is elegant about our approach is you do not have to wait to decide what launch vehicle and when until another 2 or 3 years. So we can move ahead on the development of the orbiter and the lander and then over the next 2 to 3 years, as we know the availability of these launch vehicles, their cost, then we can work with NASA, I am sure they will come to you, with what is the right combination of SLS and the traditional launch vehicle.    So let me close by a quote that I would like to mention from President Teddy Roosevelt, because such a program is challenging. We are going to have successes and we are going to have failures. But mentioning, let me repeat, and I am quoting what he said it is ``far better to do mighty things, to win glorious triumphs even though checkered by failure, than to rank with those timid spirits that know neither victory nor defeat.'' The exploration of the Ocean Worlds is one of the mightier things that our country can do and we sure are not going to be timid. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Culberson. Thank you, Dr. Elachi. Dr. Lunine.</t>
   </si>
   <si>
-    <t>Lunine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lunine. Thank you, Chairman Culberson, Ranking Member Honda, and members of the subcommittee. It is a wonderful opportunity to present my views on the search for life in the Ocean Worlds of our solar system but I am going to keep my remarks brief because the chairman and ranking member so well summarized why it is we want to go to each of these worlds.    But I do want to say that I personally feel passionately patriotic and proud of what our nation has accomplished in the exploration of the solar system. And I feel humbled personally to be a scientist participating in one of the greatest space odysseys ever undertaken, the Cassini mission to Saturn. This is an extraordinary voyage of discovery with which I have been involved essentially in the planning stages, when I was a graduate student, up to today. And this mission truly exemplifies the remarkable things that this nation can do, and in particular the remarkable things that the Jet Propulsion Laboratory, ably led by my friend and colleague, has been able to do over the years. These are historic missions and their impact is historic as well.    So both Cassini and its antecedent to Jupiter, the Galileo orbiter, have provided incontrovertible evidence that there are salt water oceans underneath the icy surfaces of three moons of the outer solar system, Europa at Jupiter, Enceladus and Titan at Saturn. And on Titan, Cassini has discovered vast seas of hydrocarbon liquids, methane and ethane, essentially hundreds of times more hydrocarbons than the known gas reserves on the Planet Earth.    Now Dr. Elachi has talked already at length about Europa and so I am not going to discuss that. But I want to make sure that everyone understands that I too find the exploration of Europa and the search for life there a top priority. So I am happy to answer questions about Europa.    But I will press on to Titan, which is larger than the Planet Mercury, the only moon to host a dense atmosphere of nitrogen and methane. Cassini and the European lander that it carried with it, Huygens, have revealed a methane hydrologic cycle, with clouds, rain, river valleys, vast seas, all involving methane and all going on in an unimaginably frigid environment. And yet Titan's surface has all of the formal requirements for life: abundant organics, liquids, and sources of energy. But because that liquid is not water we have to ask the question is this really a place that we want to go look for life? It would have to be very exotic life. But a 2007 National Research Council study in fact said that we should. And it said that Titan is a test for the universality of life as an outcome of cosmic evolution. So if we are going to look for life in those seas, the best way to do that is to land a capsule, float across the surface. That would be the first maritime exploration of an alien sea, which in and of itself would be an extraordinary adventure.    Now let me move on to Enceladus. Enceladus has not surprised scientists; it has completely shocked us. It is a very small moon and yet it has a plume of material pouring out into space from a series of fractures in its south polar region. And it was Cassini that discovered this plume of icy grains and vapor and then flew through that plume seven times, surviving each time. Thanks to the prodigious capability of its instruments, its chemical sniffers, Cassini has found not only water ice and water vapor, but also organic molecules, salt dissolved in the water, tiny grains of silica, all indicators that inside Enceladus, down in this small, liquid water salty ocean, is a hydrothermal system. A place in which water, organics, and minerals are heated together in the kind of chemical stew that many scientists think was the place where life began on Earth 4 billion years ago.    And there really is a subsurface ocean. Cassini is so powerful in terms of its scientific capability it has detected the presence of the ocean in two completely independent ways. And so if you look at all of the requirements for terrestrial type life, liquid water, organics, minerals, energy, chemical gradients, Enceladus has it all. And all that stuff is pouring out into space. It is not hidden beneath the surface. And so as far as we understand it today Enceladus provides us with the most straightforward way to look for signs of life, given the compelling evidence that much of the gas and the grains are being expelled from the interior ocean.    So let me make this very clear. To sample the plume of Enceladus is to sample the ocean beneath the surface. So merely flying through the plume, as Cassini has done, but with instrumentation more modern then Cassini's, is sufficient to search for signs of life. And this can be done for well below the cost of a flagship mission and it can be done with instruments available for flight today.    So let me summarize by saying that discovering life on or within the Ocean Worlds of our own solar system may provide unexpected and as yet hard to predict practical benefits, something that Carl Sagan pointed out many decades ago. But more profoundly it will inevitably direct our attention to the Milky Way Galaxy beyond the confines of our own planetary system. If life can begin two or three or four times in our own solar system, then the number of planets in the galaxy as a whole that harbor life must be enormously great. And then how could we resist taking the leap beyond our solar system to explore the vast spaces between the stars for life there?    Thank you very much for the opportunity to talk to you today.</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t xml:space="preserve">    Mr. Culberson. Mr. Fattah.</t>
   </si>
   <si>
-    <t>Fattah</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fattah. Thank you. It is always with mixed emotions, your retirement is both well deserved but your leadership has been extraordinary. I visited the Jet Propulsion Laboratory. I was on the floor with you when the Mars Rover landed on the surface and it was an extraordinary success for the Jet Propulsion Laboratory and for NASA, for our country, and for science worldwide. So I want to congratulate you on all your hard work and your success at the laboratory, and wish you well on your next endeavor. I am sure there is a second act or a third act here.    But I wanted to ask you a couple of questions. Given the fact that you are stepping off the stage, if you could give the committee some reflection on, you know, we at one point had a lot of back and forth. It was pretty lonely in advocating for commercial crew and commercial cargo in the space technology portion of the NASA budget. Because there was a lot of buy into what we might call the old NASA, right? And so there was this big tug of war that has now been settled and we have a robust, competitive, I think, commercial crew operation. So let us just talk about, so it really puts NASA and the Jet Propulsion Laboratory in the position to focus in on exploration. So if you could give us a few minutes on your thoughts about where we are in terms of the decision package around these issues that would be helpful.</t>
   </si>
   <si>
@@ -784,9 +757,6 @@
     <t>412583</t>
   </si>
   <si>
-    <t>Derek Kilmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kilmer. Thank you, Chairman. I was just observing, it is nice to have an agency come in where they are told they are loved. So congratulations.    General Bolden. I am all in.</t>
   </si>
   <si>
@@ -880,9 +850,6 @@
     <t>412394</t>
   </si>
   <si>
-    <t>Martha Roby</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Roby. Thank you, Mr. Chairman, and thank you, Administrator Bolden, for being here. Thanks for being in front of our committee and all you do to advance our nation's future in space.    I am also glad that you and NASA officials, earlier this year, announced Todd May the official director of Marshall Space Flight Center in Alabama. Marshall plays a major role in NASA, as you know, and has a great impact on my home state. It employees almost 6,000 civil service and contractor employees with an estimated $3.8 billion in economic output and $96 million in state and local tax revenues.    Just last week, NASA Day was held in my hometown of Montgomery where Todd May and his team from Marshall spread the word about the importance of Alabama's role in NASA--with NASA.    NASA's Journey to Mars runs through Alabama, are the words that Director May--and I could not agree more--those are the words that he used, and so with that, I want to touch on Space Launch System and the Orion spacecraft. I know you talked to Mr. Jolly a little bit about this; there are suppliers in all 50 states that contribute to SLS and that shows a national effort to deep-space exploration.    And in the fiscal year 2016, NASA asked for $1.3 billion for SLS, and Congress, led by this subcommittee, made it to $2 billion, which was enacted into law. And this year, the president's request calls for $1.31 billion, and so, wouldn't you guess that Congress, again led by our fearless chairman here, this subcommittee would get funding upwards of $2.8 billion for this fiscal year. That is what we need, and I want to ask you to contribute to the conversation that your agency does project when we will reach EM-1 in 2018.    But the question is, do you actually think that we can meet this launch date with the funding request of the President, rather than what we hope to achieve here on this subcommittee?    General Bolden. Yes, ma'am. There is no doubt in my mind that we will fly EM-1 in 2018; that is what the President's budget supported and that is how we picked it.    And, in fact, going back to something that Mr. Jolly said, and I should correct one thing, 2023 is the Agency's commitment date to EM-2, and that is based on the President's budget run out. That is not based on appropriations. So, 2021 is a date that we said, you know, we would hope to launch, if instead of the run out that comes from the President's budget, we got----</t>
   </si>
   <si>
@@ -1166,9 +1133,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Culberson. Thank you very much, Mr. Honda. And Director Cordova, your written statement will, without objection, be entered into the record in its entirety. And if we could we would welcome your summary of your testimony and if you could keep it within five minutes we would be very grateful. Thank you very much.</t>
-  </si>
-  <si>
-    <t>Cordova</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Cordova. Thank you very much, Chairman Culberson and Ranking Member Honda, Mr. Kilmer, and all the members of the staff. Good morning. And I must say Chairman Culberson and Ranking Member Honda that your words about NSF and its importance to the competitiveness of our country are music to our ears. They are just very, very important. So thank you very much for recognizing that and so stating.    I am very pleased to testify today on behalf of the National Science Foundation's fiscal year 2017 budget submission. In my written testimony I have addressed specific aspects of our budget request. NSF believes that this budget comprises a strong request that is responsive to both the national interest in science and science in the national interest. In my oral testimony I will discuss the recent discovery that you both mentioned that highlights the role of the National Science Foundation and the rewards of fundamental research.    As you know, Mr. Chairman, in early February I participated in the historic announcement of the first observation of gravitational waves by NSF's Laser Interferometer Gravitational-Wave Observatory, or LIGO. This observation is a sterling example of how and why NSF exists.    Gravitational waves are ripples in the fabric of space time, arriving at the Earth from cataclysmic events in the distant universe. Although Albert Einstein predicted their existence in 1916 their direct observation was a daunting, seeming impossible task. Einstein himself thought so. Nonetheless technological innovation combined with sound theoretical underpinnings were so tantalizing that NSF began funding research in this area in the 1970s. In the 1980s NSF committed to a full-blown observatory with two widely separated sites for positive confirmation of any detection. LIGO in fact was the first of what we call the MREFC projects, or Major Research Equipment Facilities Construction projects for NSF, and it prompted highly productive discussions with Congress. Even though NSF had never funded to that date anything on such a scale, the potential for transformative science was worth it.    With the National Science Board's approval and Congress' support, NSF built LIGO, one of the most precise scientific instruments ever developed, able to monitor the Earth's expansion and contraction to a tiny fraction of the width of the nucleus of an atom. This is a feat comparable to measuring the distance between our sun and the nearest star to about the width of a human hair. The detection of a gravitational wave was made a mere four days after turning on this advanced instrument. That wave arose in the final fraction of a second during a merger of two massive black holes approximately 1.3 billion years ago.    More than a thousand scientists worked in the LIGO scientific collaboration at universities around the states and in 14 other countries. I am pleased to add that nearly half of those scientists are from institutions and states represented by your subcommittee.    This discovery is truly a beginning, not an end. It confirms a major prediction of Einstein's General Theory of Relativity, marks the birth of gravitational wave astronomy, an entirely new way of looking at the universe. This historic achievement illustrates the importance of the National Science Foundation and really exemplifies its role in advancing discovery. The majesty of exploring our universe motivates such ambitious experiments but as with all fundamental science it also offers other benefits that are important to the nation.    For example, the science will advance education, inspiring students and developing the work force our society requires. I think that just as NASA's Moon shot enticed me and so many others of my generation to become scientists, so too will the LIGO result attract young people into science.    The fruits of NSF supported research drive our economy, enhance our security, and ensure our global leadership. As you know, basic research is uncertain and risky, but it can be revolutionary. LIGO is a striking example, but not the only one. Nobel Prizes that mark transformative discoveries, in fact, have been awarded to 217 researchers funded by the National Science Foundation. Fundamental research has transformed our world and will continue to change it in ways that we have not yet imagined.    Mr. Chairman, the budget request before you builds on the Foundation's strong success as the place where discovery and discoverers begin. Our 6.7 percent, or $500 million, increase will place special emphasis on the early career researchers needed to realize tomorrow's breakthroughs. With the fiscal year 2017 request we will be able to fund nearly a thousand early career faculty.    NSF always seeks ways to quicken the pace of discovery. Key to this is enabling early investigators to sustain momentum from their graduate training by investing in them early in their faculty appointments. This strategy would be a downpayment on sustaining our nation's long term competitiveness.    NSF funds thousands of small steps, some more successful than others. Einstein said, ``One should not pursue goals that are easily achieved. One must develop an instinct for what one can just barely achieve through one's greatest efforts.'' This was also the advice I got as a graduate student, aim high for understanding the really big stuff.    With your continued support NSF looks forward to making further discoveries like the one I just discussed that advance our understanding of the origin and evolution of our universe and everything within it, including ourselves.    This concludes my testimony and I will be pleased to answer any questions.</t>
@@ -2050,11 +2014,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2074,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2100,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2126,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2152,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2178,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2204,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2230,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2256,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2282,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2308,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2334,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2360,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2386,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2412,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2438,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2464,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2490,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2516,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2542,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2568,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2594,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2620,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2646,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2672,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2698,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2724,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2750,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2776,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2802,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2828,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2854,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2880,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2906,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2932,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2958,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2984,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3010,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3036,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3062,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3088,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3114,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3140,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3166,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3192,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3220,11 +3094,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3244,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3272,11 +3142,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3296,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3322,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3348,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3376,11 +3238,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3400,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3426,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3452,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3478,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3504,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3530,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3556,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3582,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>76</v>
-      </c>
-      <c r="H61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3608,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3634,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3660,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3688,11 +3526,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3712,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3738,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3766,11 +3598,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3790,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3818,11 +3646,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3842,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3868,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3894,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3920,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3946,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3972,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3998,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4024,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4050,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4076,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4102,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4128,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4154,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4180,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4206,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4232,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4258,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4284,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4310,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4336,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4362,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4388,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4414,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4440,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4466,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4492,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4518,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4544,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4570,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4596,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4622,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4648,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4674,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4702,11 +4462,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4726,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4754,11 +4510,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4778,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4806,11 +4558,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4830,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4856,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4882,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4908,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4936,11 +4678,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4960,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4988,11 +4726,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5012,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5038,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5064,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5090,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5118,11 +4846,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5142,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5168,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5194,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5220,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5246,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5272,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5298,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5324,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5350,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5376,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5402,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5430,11 +5134,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5454,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5482,11 +5182,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5506,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5534,11 +5230,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5558,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5584,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5610,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5636,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5662,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5688,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5714,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5740,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5766,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5792,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5818,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5844,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5870,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5896,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5922,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5948,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5974,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6000,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6028,11 +5686,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6052,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6080,11 +5734,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6104,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6130,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6156,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6182,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6208,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6234,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6260,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6286,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6314,11 +5950,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6338,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6364,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6390,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6416,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6442,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6468,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6494,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6520,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6546,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6572,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6598,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6624,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6650,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6676,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6702,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6728,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6754,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6780,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6806,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6832,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6858,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6886,11 +6478,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6912,11 +6502,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6936,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6964,11 +6550,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6988,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7014,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>76</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7040,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7066,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7092,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7118,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
-      </c>
-      <c r="G197" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7146,11 +6718,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7170,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7198,11 +6766,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7222,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7248,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7274,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7300,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7326,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7352,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7378,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7404,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7430,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7456,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7482,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
-      </c>
-      <c r="G211" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7510,11 +7054,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7536,11 +7078,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7562,11 +7102,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7586,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
-      </c>
-      <c r="G215" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7612,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7638,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7664,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7690,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7716,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7742,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7768,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7794,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7820,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7846,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7872,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
-      </c>
-      <c r="G226" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7898,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7924,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G228" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7950,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
-      </c>
-      <c r="G229" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7978,11 +7486,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8002,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>17</v>
-      </c>
-      <c r="G231" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8030,11 +7534,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8054,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8080,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>255</v>
-      </c>
-      <c r="G234" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8106,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>255</v>
-      </c>
-      <c r="G235" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8132,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>255</v>
-      </c>
-      <c r="G236" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8158,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>255</v>
-      </c>
-      <c r="G237" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8184,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>17</v>
-      </c>
-      <c r="G238" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8210,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
-      </c>
-      <c r="G239" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8236,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
-      </c>
-      <c r="G240" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8262,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
-      </c>
-      <c r="G241" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8288,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
-      </c>
-      <c r="G242" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8314,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
-      </c>
-      <c r="G243" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8340,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
-      </c>
-      <c r="G244" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8366,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
-      </c>
-      <c r="G245" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8392,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G246" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8418,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
-      </c>
-      <c r="G247" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8444,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
-      </c>
-      <c r="G248" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8470,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
-      </c>
-      <c r="G249" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8496,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
-      </c>
-      <c r="G250" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8522,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
-      </c>
-      <c r="G251" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8548,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G252" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8574,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
-      </c>
-      <c r="G253" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8600,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
-      </c>
-      <c r="G254" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8626,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>17</v>
-      </c>
-      <c r="G255" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8652,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>17</v>
-      </c>
-      <c r="G256" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8678,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8704,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>17</v>
-      </c>
-      <c r="G258" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8730,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>17</v>
-      </c>
-      <c r="G259" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8756,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8782,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8808,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8834,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8860,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>17</v>
-      </c>
-      <c r="G264" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8886,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>287</v>
-      </c>
-      <c r="G265" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8912,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>287</v>
-      </c>
-      <c r="G266" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8938,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>287</v>
-      </c>
-      <c r="G267" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8964,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>287</v>
-      </c>
-      <c r="G268" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8990,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>17</v>
-      </c>
-      <c r="G269" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9016,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>17</v>
-      </c>
-      <c r="G270" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9042,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>17</v>
-      </c>
-      <c r="G271" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9068,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>17</v>
-      </c>
-      <c r="G272" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9094,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>17</v>
-      </c>
-      <c r="G273" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9120,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>17</v>
-      </c>
-      <c r="G274" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9146,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
-      </c>
-      <c r="G275" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9172,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>17</v>
-      </c>
-      <c r="G276" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9198,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>17</v>
-      </c>
-      <c r="G277" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9224,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>17</v>
-      </c>
-      <c r="G278" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9252,11 +8662,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9276,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>17</v>
-      </c>
-      <c r="G280" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9302,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>17</v>
-      </c>
-      <c r="G281" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9330,11 +8734,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9354,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9382,11 +8782,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9406,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>17</v>
-      </c>
-      <c r="G285" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9434,11 +8830,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9458,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>17</v>
-      </c>
-      <c r="G287" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9484,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>17</v>
-      </c>
-      <c r="G288" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9510,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>17</v>
-      </c>
-      <c r="G289" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9536,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>17</v>
-      </c>
-      <c r="G290" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9562,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>17</v>
-      </c>
-      <c r="G291" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9588,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>17</v>
-      </c>
-      <c r="G292" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9614,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>17</v>
-      </c>
-      <c r="G293" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9640,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>17</v>
-      </c>
-      <c r="G294" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9666,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>17</v>
-      </c>
-      <c r="G295" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9692,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>17</v>
-      </c>
-      <c r="G296" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9718,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>17</v>
-      </c>
-      <c r="G297" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9746,11 +9118,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9772,11 +9142,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9798,11 +9166,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9824,11 +9190,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9850,11 +9214,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9876,11 +9238,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9902,11 +9262,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9928,11 +9286,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9954,11 +9310,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9980,11 +9334,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10006,11 +9358,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10030,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>17</v>
-      </c>
-      <c r="G309" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10058,11 +9406,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10082,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>17</v>
-      </c>
-      <c r="G311" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10108,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>20</v>
-      </c>
-      <c r="G312" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10134,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
-      </c>
-      <c r="G313" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10160,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>20</v>
-      </c>
-      <c r="G314" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10186,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>17</v>
-      </c>
-      <c r="G315" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10212,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>36</v>
-      </c>
-      <c r="G316" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10238,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>36</v>
-      </c>
-      <c r="G317" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10266,11 +9598,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10290,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
-      </c>
-      <c r="G319" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10316,13 +9644,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>17</v>
-      </c>
-      <c r="G320" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10342,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
-      </c>
-      <c r="G321" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10368,13 +9692,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>17</v>
-      </c>
-      <c r="G322" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10394,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>17</v>
-      </c>
-      <c r="G323" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10420,13 +9740,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>17</v>
-      </c>
-      <c r="G324" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10446,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>17</v>
-      </c>
-      <c r="G325" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10472,13 +9788,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>17</v>
-      </c>
-      <c r="G326" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10498,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>17</v>
-      </c>
-      <c r="G327" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10524,13 +9836,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>17</v>
-      </c>
-      <c r="G328" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10552,11 +9862,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10578,11 +9886,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10604,11 +9910,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10630,11 +9934,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10656,11 +9958,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10682,11 +9982,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>12</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10708,11 +10006,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10734,11 +10030,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10760,11 +10054,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10784,13 +10076,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
-      </c>
-      <c r="G338" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10810,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>36</v>
-      </c>
-      <c r="G339" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10836,13 +10124,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>36</v>
-      </c>
-      <c r="G340" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10862,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>36</v>
-      </c>
-      <c r="G341" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10888,13 +10172,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>17</v>
-      </c>
-      <c r="G342" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10914,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>17</v>
-      </c>
-      <c r="G343" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10940,13 +10220,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>17</v>
-      </c>
-      <c r="G344" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10966,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>17</v>
-      </c>
-      <c r="G345" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10992,13 +10268,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>17</v>
-      </c>
-      <c r="G346" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11018,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>17</v>
-      </c>
-      <c r="G347" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11044,13 +10316,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>17</v>
-      </c>
-      <c r="G348" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11070,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>17</v>
-      </c>
-      <c r="G349" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11098,11 +10366,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>12</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11124,11 +10390,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11150,11 +10414,9 @@
       <c r="F352" t="s">
         <v>11</v>
       </c>
-      <c r="G352" t="s">
-        <v>12</v>
-      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11176,11 +10438,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11202,11 +10462,9 @@
       <c r="F354" t="s">
         <v>11</v>
       </c>
-      <c r="G354" t="s">
-        <v>12</v>
-      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11228,11 +10486,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11254,11 +10510,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>12</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11280,11 +10534,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11306,11 +10558,9 @@
       <c r="F358" t="s">
         <v>11</v>
       </c>
-      <c r="G358" t="s">
-        <v>12</v>
-      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11330,13 +10580,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>17</v>
-      </c>
-      <c r="G359" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11356,13 +10604,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>17</v>
-      </c>
-      <c r="G360" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11382,13 +10628,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>17</v>
-      </c>
-      <c r="G361" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11410,11 +10654,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11434,13 +10676,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>17</v>
-      </c>
-      <c r="G363" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11460,13 +10700,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>14</v>
-      </c>
-      <c r="G364" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11486,13 +10724,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>17</v>
-      </c>
-      <c r="G365" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11512,13 +10748,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>14</v>
-      </c>
-      <c r="G366" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11538,13 +10772,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>17</v>
-      </c>
-      <c r="G367" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11564,13 +10796,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>14</v>
-      </c>
-      <c r="G368" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11590,13 +10820,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>17</v>
-      </c>
-      <c r="G369" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11616,13 +10844,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>14</v>
-      </c>
-      <c r="G370" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11642,13 +10868,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>17</v>
-      </c>
-      <c r="G371" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11668,13 +10892,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>14</v>
-      </c>
-      <c r="G372" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11694,13 +10916,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>17</v>
-      </c>
-      <c r="G373" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11720,13 +10940,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>14</v>
-      </c>
-      <c r="G374" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11746,13 +10964,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>17</v>
-      </c>
-      <c r="G375" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11772,13 +10988,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>14</v>
-      </c>
-      <c r="G376" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11798,13 +11012,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>17</v>
-      </c>
-      <c r="G377" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11824,13 +11036,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>14</v>
-      </c>
-      <c r="G378" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11850,13 +11060,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>17</v>
-      </c>
-      <c r="G379" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11876,13 +11084,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>14</v>
-      </c>
-      <c r="G380" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11902,13 +11108,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>17</v>
-      </c>
-      <c r="G381" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11928,13 +11132,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>14</v>
-      </c>
-      <c r="G382" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11954,13 +11156,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>17</v>
-      </c>
-      <c r="G383" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11980,13 +11180,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>14</v>
-      </c>
-      <c r="G384" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12006,13 +11204,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>17</v>
-      </c>
-      <c r="G385" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12032,13 +11228,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>14</v>
-      </c>
-      <c r="G386" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12058,13 +11252,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>17</v>
-      </c>
-      <c r="G387" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12084,13 +11276,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>14</v>
-      </c>
-      <c r="G388" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12110,13 +11300,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>17</v>
-      </c>
-      <c r="G389" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12136,13 +11324,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>14</v>
-      </c>
-      <c r="G390" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12162,13 +11348,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>17</v>
-      </c>
-      <c r="G391" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12188,13 +11372,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>14</v>
-      </c>
-      <c r="G392" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12214,13 +11396,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>17</v>
-      </c>
-      <c r="G393" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12242,11 +11422,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>12</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12266,13 +11444,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>14</v>
-      </c>
-      <c r="G395" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12294,11 +11470,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>12</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12318,13 +11492,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>14</v>
-      </c>
-      <c r="G397" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12346,11 +11518,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12370,13 +11540,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>17</v>
-      </c>
-      <c r="G399" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12396,13 +11564,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>20</v>
-      </c>
-      <c r="G400" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12422,13 +11588,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>14</v>
-      </c>
-      <c r="G401" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12448,13 +11612,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>20</v>
-      </c>
-      <c r="G402" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12474,13 +11636,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>14</v>
-      </c>
-      <c r="G403" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12500,13 +11660,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>20</v>
-      </c>
-      <c r="G404" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12526,13 +11684,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>14</v>
-      </c>
-      <c r="G405" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12552,13 +11708,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>20</v>
-      </c>
-      <c r="G406" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12578,13 +11732,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>14</v>
-      </c>
-      <c r="G407" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12604,13 +11756,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>20</v>
-      </c>
-      <c r="G408" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12630,13 +11780,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>14</v>
-      </c>
-      <c r="G409" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12656,13 +11804,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>20</v>
-      </c>
-      <c r="G410" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12682,13 +11828,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>14</v>
-      </c>
-      <c r="G411" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12708,13 +11852,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>20</v>
-      </c>
-      <c r="G412" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12734,13 +11876,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>14</v>
-      </c>
-      <c r="G413" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12760,13 +11900,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>20</v>
-      </c>
-      <c r="G414" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12786,13 +11924,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12812,13 +11948,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>20</v>
-      </c>
-      <c r="G416" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12838,13 +11972,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>14</v>
-      </c>
-      <c r="G417" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12864,13 +11996,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>20</v>
-      </c>
-      <c r="G418" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12892,11 +12022,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12916,13 +12044,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>14</v>
-      </c>
-      <c r="G420" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12944,11 +12070,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>12</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12968,13 +12092,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>17</v>
-      </c>
-      <c r="G422" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12994,13 +12116,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>255</v>
-      </c>
-      <c r="G423" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13020,13 +12140,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>14</v>
-      </c>
-      <c r="G424" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13046,13 +12164,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>255</v>
-      </c>
-      <c r="G425" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13072,13 +12188,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>14</v>
-      </c>
-      <c r="G426" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13098,13 +12212,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>255</v>
-      </c>
-      <c r="G427" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13124,13 +12236,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>14</v>
-      </c>
-      <c r="G428" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13150,13 +12260,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>255</v>
-      </c>
-      <c r="G429" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13176,13 +12284,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>17</v>
-      </c>
-      <c r="G430" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13202,13 +12308,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>14</v>
-      </c>
-      <c r="G431" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13228,13 +12332,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>17</v>
-      </c>
-      <c r="G432" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13254,13 +12356,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>14</v>
-      </c>
-      <c r="G433" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13280,13 +12380,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>17</v>
-      </c>
-      <c r="G434" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13306,13 +12404,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>14</v>
-      </c>
-      <c r="G435" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13332,13 +12428,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>17</v>
-      </c>
-      <c r="G436" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13358,13 +12452,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>14</v>
-      </c>
-      <c r="G437" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13384,13 +12476,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>17</v>
-      </c>
-      <c r="G438" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13410,13 +12500,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>14</v>
-      </c>
-      <c r="G439" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13436,13 +12524,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>17</v>
-      </c>
-      <c r="G440" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13462,13 +12548,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>14</v>
-      </c>
-      <c r="G441" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13488,13 +12572,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>17</v>
-      </c>
-      <c r="G442" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13514,13 +12596,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>14</v>
-      </c>
-      <c r="G443" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13540,13 +12620,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>17</v>
-      </c>
-      <c r="G444" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13566,13 +12644,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>14</v>
-      </c>
-      <c r="G445" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13592,13 +12668,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>17</v>
-      </c>
-      <c r="G446" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13618,13 +12692,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>14</v>
-      </c>
-      <c r="G447" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13644,13 +12716,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>17</v>
-      </c>
-      <c r="G448" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13670,13 +12740,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>14</v>
-      </c>
-      <c r="G449" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13696,13 +12764,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>17</v>
-      </c>
-      <c r="G450" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13722,13 +12788,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>14</v>
-      </c>
-      <c r="G451" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13748,13 +12812,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>17</v>
-      </c>
-      <c r="G452" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13774,13 +12836,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>14</v>
-      </c>
-      <c r="G453" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13800,13 +12860,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>17</v>
-      </c>
-      <c r="G454" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13826,13 +12884,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>14</v>
-      </c>
-      <c r="G455" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13852,13 +12908,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>17</v>
-      </c>
-      <c r="G456" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13878,13 +12932,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>14</v>
-      </c>
-      <c r="G457" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13904,13 +12956,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>17</v>
-      </c>
-      <c r="G458" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13930,13 +12980,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>14</v>
-      </c>
-      <c r="G459" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13956,13 +13004,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>17</v>
-      </c>
-      <c r="G460" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13982,13 +13028,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>14</v>
-      </c>
-      <c r="G461" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14008,13 +13052,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>17</v>
-      </c>
-      <c r="G462" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14034,13 +13076,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>14</v>
-      </c>
-      <c r="G463" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14060,13 +13100,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>17</v>
-      </c>
-      <c r="G464" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14086,13 +13124,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>14</v>
-      </c>
-      <c r="G465" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14112,13 +13148,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>17</v>
-      </c>
-      <c r="G466" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14138,13 +13172,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>14</v>
-      </c>
-      <c r="G467" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14164,13 +13196,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>17</v>
-      </c>
-      <c r="G468" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14190,13 +13220,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>14</v>
-      </c>
-      <c r="G469" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14216,13 +13244,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>17</v>
-      </c>
-      <c r="G470" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14242,13 +13268,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>14</v>
-      </c>
-      <c r="G471" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14268,13 +13292,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>17</v>
-      </c>
-      <c r="G472" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14294,13 +13316,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>14</v>
-      </c>
-      <c r="G473" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14320,13 +13340,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>17</v>
-      </c>
-      <c r="G474" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14346,13 +13364,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>14</v>
-      </c>
-      <c r="G475" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14372,13 +13388,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>17</v>
-      </c>
-      <c r="G476" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14398,13 +13412,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>14</v>
-      </c>
-      <c r="G477" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14424,13 +13436,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>17</v>
-      </c>
-      <c r="G478" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14450,13 +13460,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>14</v>
-      </c>
-      <c r="G479" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14476,13 +13484,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>17</v>
-      </c>
-      <c r="G480" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14502,13 +13508,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>14</v>
-      </c>
-      <c r="G481" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14528,13 +13532,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>17</v>
-      </c>
-      <c r="G482" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14556,11 +13558,9 @@
       <c r="F483" t="s">
         <v>11</v>
       </c>
-      <c r="G483" t="s">
-        <v>12</v>
-      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14580,13 +13580,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>17</v>
-      </c>
-      <c r="G484" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14608,11 +13606,9 @@
       <c r="F485" t="s">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>12</v>
-      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14632,13 +13628,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>17</v>
-      </c>
-      <c r="G486" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14660,11 +13654,9 @@
       <c r="F487" t="s">
         <v>11</v>
       </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14684,13 +13676,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>14</v>
-      </c>
-      <c r="G488" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14712,11 +13702,9 @@
       <c r="F489" t="s">
         <v>11</v>
       </c>
-      <c r="G489" t="s">
-        <v>12</v>
-      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14736,13 +13724,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>17</v>
-      </c>
-      <c r="G490" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14762,13 +13748,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>287</v>
-      </c>
-      <c r="G491" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14788,13 +13772,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>14</v>
-      </c>
-      <c r="G492" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14814,13 +13796,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>287</v>
-      </c>
-      <c r="G493" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14840,13 +13820,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>14</v>
-      </c>
-      <c r="G494" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14866,13 +13844,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>287</v>
-      </c>
-      <c r="G495" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14892,13 +13868,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>14</v>
-      </c>
-      <c r="G496" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14918,13 +13892,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>287</v>
-      </c>
-      <c r="G497" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14944,13 +13916,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>17</v>
-      </c>
-      <c r="G498" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14970,13 +13940,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>14</v>
-      </c>
-      <c r="G499" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14996,13 +13964,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>14</v>
-      </c>
-      <c r="G500" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15022,13 +13988,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>14</v>
-      </c>
-      <c r="G501" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15048,13 +14012,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>14</v>
-      </c>
-      <c r="G502" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15074,13 +14036,11 @@
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>14</v>
-      </c>
-      <c r="G503" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15100,13 +14060,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>14</v>
-      </c>
-      <c r="G504" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15126,13 +14084,11 @@
         <v>10</v>
       </c>
       <c r="F505" t="s">
-        <v>17</v>
-      </c>
-      <c r="G505" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15152,13 +14108,11 @@
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>20</v>
-      </c>
-      <c r="G506" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15178,13 +14132,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>14</v>
-      </c>
-      <c r="G507" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15204,13 +14156,11 @@
         <v>10</v>
       </c>
       <c r="F508" t="s">
-        <v>20</v>
-      </c>
-      <c r="G508" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15230,13 +14180,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>14</v>
-      </c>
-      <c r="G509" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15256,13 +14204,11 @@
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>20</v>
-      </c>
-      <c r="G510" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15282,13 +14228,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>14</v>
-      </c>
-      <c r="G511" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15308,13 +14252,11 @@
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>20</v>
-      </c>
-      <c r="G512" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15334,13 +14276,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>14</v>
-      </c>
-      <c r="G513" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15360,13 +14300,11 @@
         <v>10</v>
       </c>
       <c r="F514" t="s">
-        <v>20</v>
-      </c>
-      <c r="G514" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15386,13 +14324,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>14</v>
-      </c>
-      <c r="G515" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15412,13 +14348,11 @@
         <v>10</v>
       </c>
       <c r="F516" t="s">
-        <v>20</v>
-      </c>
-      <c r="G516" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15438,13 +14372,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>14</v>
-      </c>
-      <c r="G517" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15464,13 +14396,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>20</v>
-      </c>
-      <c r="G518" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15490,13 +14420,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>14</v>
-      </c>
-      <c r="G519" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15516,13 +14444,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>20</v>
-      </c>
-      <c r="G520" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15542,13 +14468,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>14</v>
-      </c>
-      <c r="G521" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15568,13 +14492,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>20</v>
-      </c>
-      <c r="G522" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15594,13 +14516,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>14</v>
-      </c>
-      <c r="G523" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15620,13 +14540,11 @@
         <v>10</v>
       </c>
       <c r="F524" t="s">
-        <v>20</v>
-      </c>
-      <c r="G524" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15646,13 +14564,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>14</v>
-      </c>
-      <c r="G525" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15672,13 +14588,11 @@
         <v>10</v>
       </c>
       <c r="F526" t="s">
-        <v>20</v>
-      </c>
-      <c r="G526" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15698,13 +14612,11 @@
         <v>10</v>
       </c>
       <c r="F527" t="s">
-        <v>14</v>
-      </c>
-      <c r="G527" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G527" t="s"/>
       <c r="H527" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15724,13 +14636,11 @@
         <v>10</v>
       </c>
       <c r="F528" t="s">
-        <v>20</v>
-      </c>
-      <c r="G528" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G528" t="s"/>
       <c r="H528" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15750,13 +14660,11 @@
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>17</v>
-      </c>
-      <c r="G529" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G529" t="s"/>
       <c r="H529" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15778,11 +14686,9 @@
       <c r="F530" t="s">
         <v>11</v>
       </c>
-      <c r="G530" t="s">
-        <v>12</v>
-      </c>
+      <c r="G530" t="s"/>
       <c r="H530" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15802,13 +14708,11 @@
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>14</v>
-      </c>
-      <c r="G531" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G531" t="s"/>
       <c r="H531" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15830,11 +14734,9 @@
       <c r="F532" t="s">
         <v>11</v>
       </c>
-      <c r="G532" t="s">
-        <v>12</v>
-      </c>
+      <c r="G532" t="s"/>
       <c r="H532" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15854,13 +14756,11 @@
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>17</v>
-      </c>
-      <c r="G533" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G533" t="s"/>
       <c r="H533" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15880,13 +14780,11 @@
         <v>10</v>
       </c>
       <c r="F534" t="s">
-        <v>14</v>
-      </c>
-      <c r="G534" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G534" t="s"/>
       <c r="H534" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15906,13 +14804,11 @@
         <v>10</v>
       </c>
       <c r="F535" t="s">
-        <v>17</v>
-      </c>
-      <c r="G535" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G535" t="s"/>
       <c r="H535" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15934,11 +14830,9 @@
       <c r="F536" t="s">
         <v>11</v>
       </c>
-      <c r="G536" t="s">
-        <v>12</v>
-      </c>
+      <c r="G536" t="s"/>
       <c r="H536" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15958,13 +14852,11 @@
         <v>10</v>
       </c>
       <c r="F537" t="s">
-        <v>14</v>
-      </c>
-      <c r="G537" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G537" t="s"/>
       <c r="H537" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15986,11 +14878,9 @@
       <c r="F538" t="s">
         <v>11</v>
       </c>
-      <c r="G538" t="s">
-        <v>12</v>
-      </c>
+      <c r="G538" t="s"/>
       <c r="H538" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16010,13 +14900,11 @@
         <v>10</v>
       </c>
       <c r="F539" t="s">
-        <v>14</v>
-      </c>
-      <c r="G539" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G539" t="s"/>
       <c r="H539" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16038,11 +14926,9 @@
       <c r="F540" t="s">
         <v>11</v>
       </c>
-      <c r="G540" t="s">
-        <v>12</v>
-      </c>
+      <c r="G540" t="s"/>
       <c r="H540" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16062,13 +14948,11 @@
         <v>10</v>
       </c>
       <c r="F541" t="s">
-        <v>14</v>
-      </c>
-      <c r="G541" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G541" t="s"/>
       <c r="H541" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16090,11 +14974,9 @@
       <c r="F542" t="s">
         <v>11</v>
       </c>
-      <c r="G542" t="s">
-        <v>12</v>
-      </c>
+      <c r="G542" t="s"/>
       <c r="H542" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16114,13 +14996,11 @@
         <v>10</v>
       </c>
       <c r="F543" t="s">
-        <v>17</v>
-      </c>
-      <c r="G543" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G543" t="s"/>
       <c r="H543" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16140,13 +15020,11 @@
         <v>10</v>
       </c>
       <c r="F544" t="s">
-        <v>14</v>
-      </c>
-      <c r="G544" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G544" t="s"/>
       <c r="H544" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16166,13 +15044,11 @@
         <v>10</v>
       </c>
       <c r="F545" t="s">
-        <v>17</v>
-      </c>
-      <c r="G545" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G545" t="s"/>
       <c r="H545" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16192,13 +15068,11 @@
         <v>10</v>
       </c>
       <c r="F546" t="s">
-        <v>14</v>
-      </c>
-      <c r="G546" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G546" t="s"/>
       <c r="H546" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16218,13 +15092,11 @@
         <v>10</v>
       </c>
       <c r="F547" t="s">
-        <v>17</v>
-      </c>
-      <c r="G547" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G547" t="s"/>
       <c r="H547" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16246,11 +15118,9 @@
       <c r="F548" t="s">
         <v>11</v>
       </c>
-      <c r="G548" t="s">
-        <v>12</v>
-      </c>
+      <c r="G548" t="s"/>
       <c r="H548" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16270,13 +15140,11 @@
         <v>10</v>
       </c>
       <c r="F549" t="s">
-        <v>17</v>
-      </c>
-      <c r="G549" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G549" t="s"/>
       <c r="H549" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16298,11 +15166,9 @@
       <c r="F550" t="s">
         <v>11</v>
       </c>
-      <c r="G550" t="s">
-        <v>12</v>
-      </c>
+      <c r="G550" t="s"/>
       <c r="H550" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16322,13 +15188,11 @@
         <v>10</v>
       </c>
       <c r="F551" t="s">
-        <v>14</v>
-      </c>
-      <c r="G551" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G551" t="s"/>
       <c r="H551" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16350,11 +15214,9 @@
       <c r="F552" t="s">
         <v>11</v>
       </c>
-      <c r="G552" t="s">
-        <v>12</v>
-      </c>
+      <c r="G552" t="s"/>
       <c r="H552" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16374,13 +15236,11 @@
         <v>10</v>
       </c>
       <c r="F553" t="s">
-        <v>14</v>
-      </c>
-      <c r="G553" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G553" t="s"/>
       <c r="H553" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16402,11 +15262,9 @@
       <c r="F554" t="s">
         <v>11</v>
       </c>
-      <c r="G554" t="s">
-        <v>12</v>
-      </c>
+      <c r="G554" t="s"/>
       <c r="H554" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16426,13 +15284,11 @@
         <v>10</v>
       </c>
       <c r="F555" t="s">
-        <v>14</v>
-      </c>
-      <c r="G555" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G555" t="s"/>
       <c r="H555" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16454,11 +15310,9 @@
       <c r="F556" t="s">
         <v>11</v>
       </c>
-      <c r="G556" t="s">
-        <v>12</v>
-      </c>
+      <c r="G556" t="s"/>
       <c r="H556" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16478,13 +15332,11 @@
         <v>10</v>
       </c>
       <c r="F557" t="s">
-        <v>17</v>
-      </c>
-      <c r="G557" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G557" t="s"/>
       <c r="H557" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16504,13 +15356,11 @@
         <v>10</v>
       </c>
       <c r="F558" t="s">
-        <v>14</v>
-      </c>
-      <c r="G558" t="s">
-        <v>384</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G558" t="s"/>
       <c r="H558" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16530,13 +15380,11 @@
         <v>10</v>
       </c>
       <c r="F559" t="s">
-        <v>17</v>
-      </c>
-      <c r="G559" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G559" t="s"/>
       <c r="H559" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
